--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_IPOY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D037B5EC-8DC6-452A-A52F-3490E16F4FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212A7252-E049-4DE4-99D7-ECC0FCF35310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="1656" windowWidth="32952" windowHeight="15816" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -2717,25 +2717,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="28" borderId="28" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,17 +2739,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="37" borderId="30" xfId="277" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2775,19 +2763,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="60" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="60" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="60" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="60" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="60" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="60" fillId="35" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2799,6 +2787,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3682,7 +3682,7 @@
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="131" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       <c r="H4" s="89"/>
       <c r="I4" s="89"/>
       <c r="J4" s="90"/>
-      <c r="K4" s="101"/>
+      <c r="K4" s="131"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="88"/>
@@ -3728,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="90"/>
-      <c r="K5" s="101"/>
+      <c r="K5" s="131"/>
     </row>
     <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
       <c r="A6" s="88"/>
@@ -3757,7 +3757,7 @@
         <v>41</v>
       </c>
       <c r="J6" s="90"/>
-      <c r="K6" s="101"/>
+      <c r="K6" s="131"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="88"/>
@@ -3780,7 +3780,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="90"/>
-      <c r="K7" s="101"/>
+      <c r="K7" s="131"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="88"/>
@@ -3803,7 +3803,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="90"/>
-      <c r="K8" s="101"/>
+      <c r="K8" s="131"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="88"/>
@@ -3816,7 +3816,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="90"/>
-      <c r="K9" s="101"/>
+      <c r="K9" s="131"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="88"/>
@@ -3829,7 +3829,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="90"/>
-      <c r="K10" s="101"/>
+      <c r="K10" s="131"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="88"/>
@@ -3842,7 +3842,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="90"/>
-      <c r="K11" s="101"/>
+      <c r="K11" s="131"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="91"/>
@@ -3855,14 +3855,14 @@
       <c r="H12" s="92"/>
       <c r="I12" s="92"/>
       <c r="J12" s="93"/>
-      <c r="K12" s="101"/>
+      <c r="K12" s="131"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="130"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="80" t="s">
@@ -4109,10 +4109,10 @@
       <c r="J12" s="37"/>
     </row>
     <row r="15" spans="1:10" ht="13.8" thickBot="1">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="130"/>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="38" t="s">
@@ -4295,15 +4295,15 @@
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="107"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="103"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4317,25 +4317,25 @@
     </row>
     <row r="5" spans="1:21" ht="13.8" thickBot="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="105" t="s">
         <v>128</v>
       </c>
       <c r="L5" s="12"/>
@@ -4351,25 +4351,25 @@
     </row>
     <row r="6" spans="1:21" ht="52.8">
       <c r="A6" s="5"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="107" t="s">
         <v>129</v>
       </c>
       <c r="L6" s="5"/>
@@ -4385,21 +4385,21 @@
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="113"/>
+      <c r="H7" s="109"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -4412,69 +4412,69 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B8" s="119" t="str">
+      <c r="B8" s="115" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_EX_NAT_GAS</v>
       </c>
-      <c r="C8" s="119" t="str">
+      <c r="C8" s="115" t="str">
         <f>SEC_Processes!E8</f>
         <v>Natural Gas Mine</v>
       </c>
-      <c r="D8" s="120" t="str">
+      <c r="D8" s="116" t="str">
         <f>SEC_Comm!C7</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E8" s="117">
         <v>100</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="123"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="128"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="124"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="104"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="128"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="104"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="133"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4712,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4865,24 +4865,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="78">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D16" s="78">
-        <v>2021</v>
-      </c>
-      <c r="E16" s="79">
         <v>2025</v>
       </c>
+      <c r="E16" s="79"/>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1">
       <c r="B17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="46" t="str">
@@ -4914,7 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4975,11 +4973,11 @@
       <c r="C6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="46"/>
@@ -5036,6 +5034,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FCB31E966C8774491137362174F34D4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45198f7ca9987c2228de068522a4e9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96cf5878-74d7-460f-a445-eb4c85d99a58" xmlns:ns3="833e474d-e424-4496-95f1-98e7780be11a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b17c2e17e2a18750a70818fbd074bff9" ns2:_="" ns3:_="">
     <xsd:import namespace="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
@@ -5264,15 +5271,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
@@ -5287,6 +5285,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55ECEEA5-4F50-4C33-82FD-08240B0E0822}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5303,12 +5309,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/Demo model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212A7252-E049-4DE4-99D7-ECC0FCF35310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{212A7252-E049-4DE4-99D7-ECC0FCF35310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA66EA71-1F2F-4E45-B181-4EA85BC82B75}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="1656" windowWidth="32952" windowHeight="15816" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1572" yWindow="1176" windowWidth="34320" windowHeight="15288" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1057,9 +1057,6 @@
     <t>Technology Specific Fuel Emission Factors</t>
   </si>
   <si>
-    <t>Emission Factor</t>
-  </si>
-  <si>
     <t>*TechDesc</t>
   </si>
   <si>
@@ -1141,9 +1138,6 @@
     <t>Demand [PJ]</t>
   </si>
   <si>
-    <t>Pja</t>
-  </si>
-  <si>
     <t>Should have commodity of type DEM as an output</t>
   </si>
   <si>
@@ -1223,6 +1217,220 @@
   </si>
   <si>
     <t>STOCK~2025</t>
+  </si>
+  <si>
+    <t>\I: new emission commodity</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>Emission Factor [kg/GJ] = [kt/PJ]</t>
+  </si>
+  <si>
+    <t>\I: new energy commodity</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>Solar irriadiation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">↓ empty means annual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+  </si>
+  <si>
+    <t>For now it's DAYNITE, later I'll show you it's not necessary ↓</t>
+  </si>
+  <si>
+    <t>\I: new process for PV Power Plant</t>
+  </si>
+  <si>
+    <t>ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>Solar Photovoltaics</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>\I: you also need a source of solar energy, this is a "dummy" process that has no real/physical meaning</t>
+  </si>
+  <si>
+    <t>MIN_EX_SOLAR</t>
+  </si>
+  <si>
+    <t>Solar Irriadiation Source</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">very small cost here is needed to 'bound' production variable, otherwise it can lead to numerical difficulties for the solver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PV panel efficiency is not accounted here. It's accounted for in the produciton profile, attribute NCAP_AF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">empy means no cost, there's no need to put '0' explicitly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+  </si>
+  <si>
+    <t>\I: there is no need to put PV/SOLAR here with '0' -&gt; no parameter means no emission</t>
+  </si>
+  <si>
+    <t>further fuels as column headers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This table defines process/commodity specific emission factors. Emission unit per fuel unit (not electricity emissiveness).
+For emission commodity in column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>CommName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> here) you define emission factor for fuel in column (put commodity name as column header, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>NAT_GAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> here) for a process entered in a row in column '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>TechName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>' (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ELE_EX_XYZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> here)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1234,7 +1442,7 @@
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="66">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1644,8 +1852,27 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1846,8 +2073,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1969,17 +2202,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2134,17 +2356,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -2163,10 +2374,23 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2514,7 +2738,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2531,56 +2755,20 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="277" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="277" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2590,7 +2778,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
@@ -2613,14 +2801,14 @@
     <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="11" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2644,16 +2832,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="15" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="15" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="15" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2665,80 +2853,52 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="17" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="17" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="26" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="26" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="26" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="28" borderId="28" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="28" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="28" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="37" borderId="30" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="37" borderId="30" xfId="277" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2752,17 +2912,6 @@
     <xf numFmtId="1" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="60" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="60" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2776,29 +2925,177 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="60" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="60" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="60" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="60" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="60" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="60" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="62" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="61" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="60" fillId="32" borderId="28" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="60" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="60" fillId="37" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="60" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="34" borderId="27" xfId="278" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="29" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="29" xfId="277" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="60" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="26" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="26" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="60" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="37" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3638,10 +3935,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3652,7 +3949,8 @@
     <col min="4" max="4" width="32.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
     <col min="11" max="11" width="13.109375" customWidth="1"/>
@@ -3672,242 +3970,281 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="131" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="92"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.8" thickBot="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="92"/>
+    </row>
+    <row r="6" spans="1:11" ht="27" thickBot="1">
+      <c r="A6" s="66"/>
+      <c r="B6" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="92"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A7" s="66"/>
+      <c r="B7" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="99" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="131"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="131"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="131"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="19" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="92"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="92"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.8">
+      <c r="A9" s="66"/>
+      <c r="B9" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="92"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="92"/>
+    </row>
+    <row r="11" spans="1:11" ht="42" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="92"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="19" t="s">
+      <c r="C12" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="131"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="23" t="s">
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="92"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.8" thickBot="1">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="92"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B16" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="91"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="131"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="131"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="131"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="131"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="131"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="130" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="130"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="82" t="s">
+      <c r="C19" s="60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="81" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C20" s="59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="13.8" thickBot="1">
-      <c r="B20" s="83" t="s">
+    <row r="21" spans="2:3" ht="13.8" thickBot="1">
+      <c r="B21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C21" s="61" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="K3:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="K3:K13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3921,8 +4258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3933,7 +4270,7 @@
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" customWidth="1"/>
     <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
@@ -3947,254 +4284,284 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="32" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.8" thickBot="1">
+      <c r="B5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="97" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="1:10" ht="40.200000000000003" thickBot="1">
+      <c r="B6" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="98" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="B7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="B8" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="23" t="s">
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="B9" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+      <c r="B10" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+    </row>
+    <row r="11" spans="1:10" ht="37.200000000000003" customHeight="1">
+      <c r="B11" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B12" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="15" spans="1:10" ht="13.8" thickBot="1">
-      <c r="B15" s="130" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="130"/>
+      <c r="B15" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="91"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>107</v>
+      <c r="E20" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="16" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4212,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4224,7 +4591,7 @@
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="27.109375" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="7" width="14.33203125" customWidth="1"/>
     <col min="9" max="11" width="15.88671875" customWidth="1"/>
   </cols>
@@ -4295,15 +4662,15 @@
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="103"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="117"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4317,26 +4684,26 @@
     </row>
     <row r="5" spans="1:21" ht="13.8" thickBot="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>128</v>
+      <c r="F5" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>126</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -4351,26 +4718,26 @@
     </row>
     <row r="6" spans="1:21" ht="52.8">
       <c r="A6" s="5"/>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="107" t="s">
+      <c r="E6" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="74" t="s">
         <v>129</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>127</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -4385,21 +4752,21 @@
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="109"/>
+      <c r="G7" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="120"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -4412,69 +4779,93 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B8" s="115" t="str">
+      <c r="B8" s="110" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_EX_NAT_GAS</v>
       </c>
-      <c r="C8" s="115" t="str">
+      <c r="C8" s="110" t="str">
         <f>SEC_Processes!E8</f>
         <v>Natural Gas Mine</v>
       </c>
-      <c r="D8" s="116" t="str">
+      <c r="D8" s="111" t="str">
         <f>SEC_Comm!C7</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="112">
         <v>100</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="124"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="100"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+    </row>
+    <row r="9" spans="1:21" ht="57.6" customHeight="1">
+      <c r="B9" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B10" s="126" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>MIN_EX_SOLAR</v>
+      </c>
+      <c r="C10" s="126" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>Solar Irriadiation Source</v>
+      </c>
+      <c r="D10" s="127" t="str">
+        <f>SEC_Comm!C12</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E10" s="128">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
     </row>
     <row r="11" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1">
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="100"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="129"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4488,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4500,205 +4891,254 @@
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="12" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="36.21875" customWidth="1"/>
+    <col min="9" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
     <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="17.399999999999999">
-      <c r="B2" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="B2" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="E4" s="44" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-    </row>
-    <row r="5" spans="2:14" ht="26.4">
-      <c r="B5" s="65" t="s">
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="2:14" ht="27" thickBot="1">
+      <c r="B5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="E5" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="67" t="s">
+      <c r="I5" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="L5" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="67" t="s">
+    </row>
+    <row r="6" spans="2:14" ht="39.6">
+      <c r="B6" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="74" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="40.200000000000003" thickBot="1">
-      <c r="B6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="98" t="s">
+      <c r="G6" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="98" t="s">
+      <c r="I6" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="J6" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="K6" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="98" t="s">
+      <c r="L6" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="98" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="27" thickBot="1">
-      <c r="B7" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="99" t="s">
+    </row>
+    <row r="7" spans="2:14" ht="45" customHeight="1">
+      <c r="B7" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="99" t="s">
+      <c r="K7" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="L7" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="46" t="str">
+    </row>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B8" s="114" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_XYZ</v>
       </c>
-      <c r="C8" s="46" t="str">
+      <c r="C8" s="114" t="str">
         <f>SEC_Processes!E7</f>
         <v>XYZ Power Plant</v>
       </c>
-      <c r="D8" s="69" t="str">
+      <c r="D8" s="136" t="str">
         <f>SEC_Comm!C7</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="E8" s="69" t="str">
+      <c r="E8" s="136" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="137">
         <v>6.5</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="137">
         <v>6</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="137">
         <v>0.3</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="138">
         <v>31.536000000000001</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="138">
         <v>1</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="112">
         <v>1</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="138">
         <v>1</v>
       </c>
-      <c r="N8" s="71"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.8" thickBot="1">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
+      <c r="N8" s="49"/>
+    </row>
+    <row r="9" spans="2:14" ht="43.8" customHeight="1">
+      <c r="B9" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="144" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B10" s="130" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>ELE_EX_PV</v>
+      </c>
+      <c r="C10" s="130" t="str">
+        <f>SEC_Processes!E10</f>
+        <v>Solar Photovoltaics</v>
+      </c>
+      <c r="D10" s="130" t="str">
+        <f>SEC_Comm!C12</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E10" s="130" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F10" s="130">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="130">
+        <v>0</v>
+      </c>
+      <c r="H10" s="130">
+        <v>1</v>
+      </c>
+      <c r="I10" s="130">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="J10" s="130">
+        <v>1</v>
+      </c>
+      <c r="K10" s="130">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="130"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="E14" s="97"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="E15" s="97"/>
+      <c r="E15" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4712,7 +5152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4723,69 +5163,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.399999999999999">
-      <c r="B2" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="B2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="E5" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="67" t="s">
+      <c r="H5" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="67" t="s">
+      <c r="J5" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="K5" s="45" t="s">
         <v>85</v>
-      </c>
-      <c r="K5" s="67" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="40.200000000000003" thickBot="1">
@@ -4796,108 +5236,108 @@
         <v>54</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="H6" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="I6" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="J6" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="K6" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="68" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="71"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="2:11" ht="13.8" thickBot="1">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="10" spans="2:11" ht="17.399999999999999">
-      <c r="B10" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="B10" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="44" t="s">
-        <v>95</v>
+      <c r="B15" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="56">
         <v>2023</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="56">
         <v>2025</v>
       </c>
-      <c r="E16" s="79"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1">
       <c r="B17" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="132" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
+        <v>95</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="46" t="str">
+      <c r="B18" s="24" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="47">
         <v>200</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="2:5" ht="13.8" thickBot="1">
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4910,10 +5350,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4922,131 +5362,154 @@
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:11" ht="15.6" thickBot="1">
+      <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="2:11" ht="42" customHeight="1">
+      <c r="B3" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
+    </row>
+    <row r="4" spans="2:11" ht="42" customHeight="1">
+      <c r="B4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="150"/>
+    </row>
+    <row r="5" spans="2:11" ht="42" customHeight="1" thickBot="1">
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="153"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="45" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="H5" s="38" t="s">
+      <c r="D8" s="23" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>NAT_GAS</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="H8" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J8" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
-      <c r="B6" s="15" t="s">
+      <c r="K8" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="40.200000000000003" thickBot="1">
+      <c r="B9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.8" thickBot="1">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="D9" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="24" t="str">
+        <f>PP!B8</f>
+        <v>ELE_EX_XYZ</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>CO2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>56</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="H10" s="154" t="str">
+        <f>B10 &amp; " will emit " &amp; D10 &amp; " kg of " &amp; C10 &amp; " per each GJ of "&amp; D8 &amp; " consumed by the process"</f>
+        <v>ELE_EX_XYZ will emit 56 kg of CO2 per each GJ of NAT_GAS consumed by the process</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="20.399999999999999" customHeight="1">
+      <c r="B11" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="2:11" ht="13.8" thickBot="1">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D6:F6"/>
+  <mergeCells count="2">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B3:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="96cf5878-74d7-460f-a445-eb4c85d99a58">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="833e474d-e424-4496-95f1-98e7780be11a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FCB31E966C8774491137362174F34D4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45198f7ca9987c2228de068522a4e9d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96cf5878-74d7-460f-a445-eb4c85d99a58" xmlns:ns3="833e474d-e424-4496-95f1-98e7780be11a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b17c2e17e2a18750a70818fbd074bff9" ns2:_="" ns3:_="">
-    <xsd:import namespace="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <xsd:import namespace="833e474d-e424-4496-95f1-98e7780be11a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
+    <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5055,16 +5518,7 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -5073,7 +5527,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="96cf5878-74d7-460f-a445-eb4c85d99a58" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3355bc15-3803-43c6-99c3-19930f83c70c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -5086,89 +5540,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="833e474d-e424-4496-95f1-98e7780be11a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cd527c49-3208-4c55-a151-d8f89dfb23f9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="833e474d-e424-4496-95f1-98e7780be11a">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5271,17 +5650,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DBB4AC-F2FF-416B-855C-1E8EB19031D6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5293,20 +5678,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55ECEEA5-4F50-4C33-82FD-08240B0E0822}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>